--- a/data/PBsocietyMembers.xlsx
+++ b/data/PBsocietyMembers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/serdarbalciold/RepTemplates/JournalWatchPBPath/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5571D945-2EA2-274F-BAFC-DF43ED8E47EA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33A4AB8-7486-8846-9FC3-0E6D455A73E4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2264,7 +2264,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2274,6 +2274,14 @@
     </font>
     <font>
       <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2301,11 +2309,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2599,9 +2608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F495"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="236" zoomScaleNormal="236" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="236" zoomScaleNormal="236" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2610,7 +2617,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>239</v>
       </c>
       <c r="B1" t="s">
